--- a/target/classes/Excel.xlsx
+++ b/target/classes/Excel.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient" r:id="rId3" sheetId="1"/>
+    <sheet name="Pacjenci" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Imię</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Nazwisko</t>
   </si>
   <si>
-    <t>PESEL</t>
+    <t>Pesel</t>
   </si>
   <si>
     <t>Patryk</t>
@@ -29,7 +29,7 @@
     <t>Trybuch</t>
   </si>
   <si>
-    <t>355555558</t>
+    <t>99087666341</t>
   </si>
   <si>
     <t>Jan</t>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>910640277</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>82345678910</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,6 +148,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
